--- a/nw_coverage/Data/Checkpoints.xlsx
+++ b/nw_coverage/Data/Checkpoints.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanay\Desktop\Project\DRT\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanay\Desktop\Tanay_Coding\MapMatchAutomation\nw_coverage\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2E2EAF-9BD8-4DEA-A7D9-539569535C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2431E29C-7154-4976-857A-163A60498020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3A0ABBED-BDF0-42C6-A5F9-C1CB0A241D40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Checkpoint</t>
   </si>
@@ -101,9 +101,6 @@
     <t xml:space="preserve">swimming pool road </t>
   </si>
   <si>
-    <t>swimming pool road - sbi bank</t>
-  </si>
-  <si>
     <t>swimming pool x centrallibrary road</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>h16</t>
   </si>
   <si>
-    <t>hillside rd</t>
-  </si>
-  <si>
     <t>mess quarter</t>
   </si>
   <si>
@@ -159,6 +153,18 @@
   </si>
   <si>
     <t>Padmavati dev templt</t>
+  </si>
+  <si>
+    <t>Hillside road p</t>
+  </si>
+  <si>
+    <t>Department of math</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal service road </t>
+  </si>
+  <si>
+    <t>Internal service road - kg school</t>
   </si>
 </sst>
 </file>
@@ -200,9 +206,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,15 +546,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B461AF-1FDD-4F13-8C4F-26C0B7D7DBAE}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -762,10 +772,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="1">
-        <v>19.135338999999998</v>
+        <v>19.134291000000001</v>
       </c>
       <c r="C20">
-        <v>72.914480999999995</v>
+        <v>72.914168000000004</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -773,10 +783,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="1">
-        <v>19.134291000000001</v>
+        <v>19.137139000000001</v>
       </c>
       <c r="C21">
-        <v>72.914168000000004</v>
+        <v>72.914953999999994</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -784,10 +794,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="1">
-        <v>19.137139000000001</v>
+        <v>19.137551999999999</v>
       </c>
       <c r="C22">
-        <v>72.914953999999994</v>
+        <v>72.912846000000002</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -795,10 +805,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="1">
-        <v>19.137551999999999</v>
+        <v>19.138722000000001</v>
       </c>
       <c r="C23">
-        <v>72.912846000000002</v>
+        <v>72.914379999999994</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -806,70 +816,70 @@
         <v>25</v>
       </c>
       <c r="B24" s="1">
-        <v>19.137643000000001</v>
+        <v>19.138107000000002</v>
       </c>
       <c r="C24">
-        <v>72.915136000000004</v>
+        <v>72.916588000000004</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B25" s="1">
-        <v>19.138722000000001</v>
+        <v>19.137051</v>
       </c>
       <c r="C25">
-        <v>72.914379999999994</v>
+        <v>72.917851999999996</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>19.138107000000002</v>
+        <v>19.137125000000001</v>
       </c>
       <c r="C26">
-        <v>72.916588000000004</v>
+        <v>72.916922999999997</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>19.137125000000001</v>
+        <v>19.136296000000002</v>
       </c>
       <c r="C27">
-        <v>72.916922999999997</v>
+        <v>72.918052000000003</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>19.136296000000002</v>
+        <v>19.134377000000001</v>
       </c>
       <c r="C28">
-        <v>72.918052000000003</v>
+        <v>72.918332000000007</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="1">
-        <v>19.134377000000001</v>
+        <v>40</v>
+      </c>
+      <c r="B29" s="2">
+        <v>19.134387</v>
       </c>
       <c r="C29">
-        <v>72.918332000000007</v>
+        <v>72.915715000000006</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>19.133006999999999</v>
@@ -880,7 +890,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>19.129719999999999</v>
@@ -891,7 +901,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>19.129154</v>
@@ -902,78 +912,100 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1">
-        <v>19.128516999999999</v>
+        <v>19.126929000000001</v>
       </c>
       <c r="C33">
-        <v>72.919039999999995</v>
+        <v>72.917023999999998</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1">
-        <v>19.129583</v>
+        <v>19.127638000000001</v>
       </c>
       <c r="C34">
-        <v>72.914958999999996</v>
+        <v>72.918441999999999</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1">
-        <v>19.128686999999999</v>
+        <v>19.128516999999999</v>
       </c>
       <c r="C35">
-        <v>72.913732999999993</v>
+        <v>72.919039999999995</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1">
-        <v>19.125080000000001</v>
+        <v>19.129583</v>
       </c>
       <c r="C36">
-        <v>72.912585000000007</v>
+        <v>72.914958999999996</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1">
-        <v>19.124179000000002</v>
+        <v>19.128686999999999</v>
       </c>
       <c r="C37">
-        <v>72.911308000000005</v>
+        <v>72.913732999999993</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B38" s="1">
-        <v>19.124351999999998</v>
+        <v>19.125080000000001</v>
       </c>
       <c r="C38">
-        <v>72.912422000000007</v>
+        <v>72.912585000000007</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1">
+        <v>19.124179000000002</v>
+      </c>
+      <c r="C39">
+        <v>72.911308000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1">
+        <v>19.124351999999998</v>
+      </c>
+      <c r="C40">
+        <v>72.912422000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1">
         <v>19.126090000000001</v>
       </c>
-      <c r="C39">
+      <c r="C41">
         <v>72.908815000000004</v>
       </c>
     </row>
